--- a/2019_medianHHincome.xlsx
+++ b/2019_medianHHincome.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hu-my.sharepoint.com/personal/kmyros_gsd_harvard_edu/Documents/Quantitative Analysis_Volgaris/Quant Project/Data Pull_km/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayla\Documents\GitHub\QuantitativeAssignment1_KM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEC5D186-D7D4-4914-91A8-A463B4C9E34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409527EA-D2AC-4D16-ABA0-E9575AB8BF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Median HH Income 2019" sheetId="1" r:id="rId1"/>
@@ -25,2374 +25,2374 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="788">
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Geographic Area Name</t>
-  </si>
-  <si>
-    <t>Estimate!!Median household income in the past 12 months (in 2019 inflation-adjusted dollars)</t>
-  </si>
-  <si>
-    <t>Margin of Error!!Median household income in the past 12 months (in 2019 inflation-adjusted dollars)</t>
-  </si>
-  <si>
     <t>310M500US10180</t>
   </si>
   <si>
-    <t>Abilene, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US10380</t>
   </si>
   <si>
-    <t>Aguadilla-Isabela, PR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US10420</t>
   </si>
   <si>
-    <t>Akron, OH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US10500</t>
   </si>
   <si>
-    <t>Albany, GA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US10540</t>
   </si>
   <si>
-    <t>Albany-Lebanon, OR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US10580</t>
   </si>
   <si>
-    <t>Albany-Schenectady-Troy, NY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US10740</t>
   </si>
   <si>
-    <t>Albuquerque, NM Metro Area</t>
-  </si>
-  <si>
     <t>310M500US10780</t>
   </si>
   <si>
-    <t>Alexandria, LA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US10900</t>
   </si>
   <si>
-    <t>Allentown-Bethlehem-Easton, PA-NJ Metro Area</t>
-  </si>
-  <si>
     <t>310M500US11020</t>
   </si>
   <si>
-    <t>Altoona, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US11100</t>
   </si>
   <si>
-    <t>Amarillo, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US11180</t>
   </si>
   <si>
-    <t>Ames, IA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US11260</t>
   </si>
   <si>
-    <t>Anchorage, AK Metro Area</t>
-  </si>
-  <si>
     <t>310M500US11460</t>
   </si>
   <si>
-    <t>Ann Arbor, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US11500</t>
   </si>
   <si>
-    <t>Anniston-Oxford, AL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US11540</t>
   </si>
   <si>
-    <t>Appleton, WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US11640</t>
   </si>
   <si>
-    <t>Arecibo, PR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US11700</t>
   </si>
   <si>
-    <t>Asheville, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US12020</t>
   </si>
   <si>
-    <t>Athens-Clarke County, GA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US12060</t>
   </si>
   <si>
-    <t>Atlanta-Sandy Springs-Alpharetta, GA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US12100</t>
   </si>
   <si>
-    <t>Atlantic City-Hammonton, NJ Metro Area</t>
-  </si>
-  <si>
     <t>310M500US12220</t>
   </si>
   <si>
-    <t>Auburn-Opelika, AL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US12260</t>
   </si>
   <si>
-    <t>Augusta-Richmond County, GA-SC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US12420</t>
   </si>
   <si>
-    <t>Austin-Round Rock-Georgetown, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US12540</t>
   </si>
   <si>
-    <t>Bakersfield, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US12580</t>
   </si>
   <si>
-    <t>Baltimore-Columbia-Towson, MD Metro Area</t>
-  </si>
-  <si>
     <t>310M500US12620</t>
   </si>
   <si>
-    <t>Bangor, ME Metro Area</t>
-  </si>
-  <si>
     <t>310M500US12700</t>
   </si>
   <si>
-    <t>Barnstable Town, MA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US12940</t>
   </si>
   <si>
-    <t>Baton Rouge, LA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US12980</t>
   </si>
   <si>
-    <t>Battle Creek, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US13020</t>
   </si>
   <si>
-    <t>Bay City, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US13140</t>
   </si>
   <si>
-    <t>Beaumont-Port Arthur, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US13220</t>
   </si>
   <si>
-    <t>Beckley, WV Metro Area</t>
-  </si>
-  <si>
     <t>310M500US13380</t>
   </si>
   <si>
-    <t>Bellingham, WA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US13460</t>
   </si>
   <si>
-    <t>Bend, OR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US13740</t>
   </si>
   <si>
-    <t>Billings, MT Metro Area</t>
-  </si>
-  <si>
     <t>310M500US13780</t>
   </si>
   <si>
-    <t>Binghamton, NY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US13820</t>
   </si>
   <si>
-    <t>Birmingham-Hoover, AL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US13900</t>
   </si>
   <si>
-    <t>Bismarck, ND Metro Area</t>
-  </si>
-  <si>
     <t>310M500US13980</t>
   </si>
   <si>
-    <t>Blacksburg-Christiansburg, VA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US14010</t>
   </si>
   <si>
-    <t>Bloomington, IL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US14020</t>
   </si>
   <si>
-    <t>Bloomington, IN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US14100</t>
   </si>
   <si>
-    <t>Bloomsburg-Berwick, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US14260</t>
   </si>
   <si>
-    <t>Boise City, ID Metro Area</t>
-  </si>
-  <si>
     <t>310M500US14460</t>
   </si>
   <si>
-    <t>Boston-Cambridge-Newton, MA-NH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US14500</t>
   </si>
   <si>
-    <t>Boulder, CO Metro Area</t>
-  </si>
-  <si>
     <t>310M500US14540</t>
   </si>
   <si>
-    <t>Bowling Green, KY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US14740</t>
   </si>
   <si>
-    <t>Bremerton-Silverdale-Port Orchard, WA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US14860</t>
   </si>
   <si>
-    <t>Bridgeport-Stamford-Norwalk, CT Metro Area</t>
-  </si>
-  <si>
     <t>310M500US15180</t>
   </si>
   <si>
-    <t>Brownsville-Harlingen, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US15260</t>
   </si>
   <si>
-    <t>Brunswick, GA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US15380</t>
   </si>
   <si>
-    <t>Buffalo-Cheektowaga, NY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US15500</t>
   </si>
   <si>
-    <t>Burlington, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US15540</t>
   </si>
   <si>
-    <t>Burlington-South Burlington, VT Metro Area</t>
-  </si>
-  <si>
     <t>310M500US15680</t>
   </si>
   <si>
-    <t>California-Lexington Park, MD Metro Area</t>
-  </si>
-  <si>
     <t>310M500US15940</t>
   </si>
   <si>
-    <t>Canton-Massillon, OH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US15980</t>
   </si>
   <si>
-    <t>Cape Coral-Fort Myers, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16020</t>
   </si>
   <si>
-    <t>Cape Girardeau, MO-IL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16060</t>
   </si>
   <si>
-    <t>Carbondale-Marion, IL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16180</t>
   </si>
   <si>
-    <t>Carson City, NV Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16220</t>
   </si>
   <si>
-    <t>Casper, WY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16300</t>
   </si>
   <si>
-    <t>Cedar Rapids, IA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16540</t>
   </si>
   <si>
-    <t>Chambersburg-Waynesboro, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16580</t>
   </si>
   <si>
-    <t>Champaign-Urbana, IL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16620</t>
   </si>
   <si>
-    <t>Charleston, WV Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16700</t>
   </si>
   <si>
-    <t>Charleston-North Charleston, SC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16740</t>
   </si>
   <si>
-    <t>Charlotte-Concord-Gastonia, NC-SC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16820</t>
   </si>
   <si>
-    <t>Charlottesville, VA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16860</t>
   </si>
   <si>
-    <t>Chattanooga, TN-GA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16940</t>
   </si>
   <si>
-    <t>Cheyenne, WY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US16980</t>
   </si>
   <si>
-    <t>Chicago-Naperville-Elgin, IL-IN-WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US17020</t>
   </si>
   <si>
-    <t>Chico, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US17140</t>
   </si>
   <si>
-    <t>Cincinnati, OH-KY-IN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US17300</t>
   </si>
   <si>
-    <t>Clarksville, TN-KY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US17420</t>
   </si>
   <si>
-    <t>Cleveland, TN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US17460</t>
   </si>
   <si>
-    <t>Cleveland-Elyria, OH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US17660</t>
   </si>
   <si>
-    <t>Coeur d'Alene, ID Metro Area</t>
-  </si>
-  <si>
     <t>310M500US17780</t>
   </si>
   <si>
-    <t>College Station-Bryan, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US17820</t>
   </si>
   <si>
-    <t>Colorado Springs, CO Metro Area</t>
-  </si>
-  <si>
     <t>310M500US17860</t>
   </si>
   <si>
-    <t>Columbia, MO Metro Area</t>
-  </si>
-  <si>
     <t>310M500US17900</t>
   </si>
   <si>
-    <t>Columbia, SC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US17980</t>
   </si>
   <si>
-    <t>Columbus, GA-AL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US18020</t>
   </si>
   <si>
-    <t>Columbus, IN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US18140</t>
   </si>
   <si>
-    <t>Columbus, OH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US18580</t>
   </si>
   <si>
-    <t>Corpus Christi, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US18700</t>
   </si>
   <si>
-    <t>Corvallis, OR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US18880</t>
   </si>
   <si>
-    <t>Crestview-Fort Walton Beach-Destin, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US19060</t>
   </si>
   <si>
-    <t>Cumberland, MD-WV Metro Area</t>
-  </si>
-  <si>
     <t>310M500US19100</t>
   </si>
   <si>
-    <t>Dallas-Fort Worth-Arlington, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US19140</t>
   </si>
   <si>
-    <t>Dalton, GA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US19180</t>
   </si>
   <si>
-    <t>Danville, IL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US19300</t>
   </si>
   <si>
-    <t>Daphne-Fairhope-Foley, AL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US19340</t>
   </si>
   <si>
-    <t>Davenport-Moline-Rock Island, IA-IL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US19430</t>
   </si>
   <si>
-    <t>Dayton-Kettering, OH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US19460</t>
   </si>
   <si>
-    <t>Decatur, AL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US19500</t>
   </si>
   <si>
-    <t>Decatur, IL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US19660</t>
   </si>
   <si>
-    <t>Deltona-Daytona Beach-Ormond Beach, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US19740</t>
   </si>
   <si>
-    <t>Denver-Aurora-Lakewood, CO Metro Area</t>
-  </si>
-  <si>
     <t>310M500US19780</t>
   </si>
   <si>
-    <t>Des Moines-West Des Moines, IA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US19820</t>
   </si>
   <si>
-    <t>Detroit-Warren-Dearborn, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US20020</t>
   </si>
   <si>
-    <t>Dothan, AL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US20100</t>
   </si>
   <si>
-    <t>Dover, DE Metro Area</t>
-  </si>
-  <si>
     <t>310M500US20220</t>
   </si>
   <si>
-    <t>Dubuque, IA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US20260</t>
   </si>
   <si>
-    <t>Duluth, MN-WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US20500</t>
   </si>
   <si>
-    <t>Durham-Chapel Hill, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US20700</t>
   </si>
   <si>
-    <t>East Stroudsburg, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US20740</t>
   </si>
   <si>
-    <t>Eau Claire, WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US20940</t>
   </si>
   <si>
-    <t>El Centro, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US21060</t>
   </si>
   <si>
-    <t>Elizabethtown-Fort Knox, KY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US21140</t>
   </si>
   <si>
-    <t>Elkhart-Goshen, IN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US21300</t>
   </si>
   <si>
-    <t>Elmira, NY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US21340</t>
   </si>
   <si>
-    <t>El Paso, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US21420</t>
   </si>
   <si>
-    <t>Enid, OK Metro Area</t>
-  </si>
-  <si>
     <t>310M500US21500</t>
   </si>
   <si>
-    <t>Erie, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US21660</t>
   </si>
   <si>
-    <t>Eugene-Springfield, OR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US21780</t>
   </si>
   <si>
-    <t>Evansville, IN-KY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US21820</t>
   </si>
   <si>
-    <t>Fairbanks, AK Metro Area</t>
-  </si>
-  <si>
     <t>310M500US22020</t>
   </si>
   <si>
-    <t>Fargo, ND-MN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US22140</t>
   </si>
   <si>
-    <t>Farmington, NM Metro Area</t>
-  </si>
-  <si>
     <t>310M500US22180</t>
   </si>
   <si>
-    <t>Fayetteville, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US22220</t>
   </si>
   <si>
-    <t>Fayetteville-Springdale-Rogers, AR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US22380</t>
   </si>
   <si>
-    <t>Flagstaff, AZ Metro Area</t>
-  </si>
-  <si>
     <t>310M500US22420</t>
   </si>
   <si>
-    <t>Flint, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US22500</t>
   </si>
   <si>
-    <t>Florence, SC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US22520</t>
   </si>
   <si>
-    <t>Florence-Muscle Shoals, AL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US22540</t>
   </si>
   <si>
-    <t>Fond du Lac, WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US22660</t>
   </si>
   <si>
-    <t>Fort Collins, CO Metro Area</t>
-  </si>
-  <si>
     <t>310M500US22900</t>
   </si>
   <si>
-    <t>Fort Smith, AR-OK Metro Area</t>
-  </si>
-  <si>
     <t>310M500US23060</t>
   </si>
   <si>
-    <t>Fort Wayne, IN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US23420</t>
   </si>
   <si>
-    <t>Fresno, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US23460</t>
   </si>
   <si>
-    <t>Gadsden, AL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US23540</t>
   </si>
   <si>
-    <t>Gainesville, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US23580</t>
   </si>
   <si>
-    <t>Gainesville, GA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US23900</t>
   </si>
   <si>
-    <t>Gettysburg, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US24020</t>
   </si>
   <si>
-    <t>Glens Falls, NY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US24140</t>
   </si>
   <si>
-    <t>Goldsboro, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US24220</t>
   </si>
   <si>
-    <t>Grand Forks, ND-MN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US24260</t>
   </si>
   <si>
-    <t>Grand Island, NE Metro Area</t>
-  </si>
-  <si>
     <t>310M500US24300</t>
   </si>
   <si>
-    <t>Grand Junction, CO Metro Area</t>
-  </si>
-  <si>
     <t>310M500US24340</t>
   </si>
   <si>
-    <t>Grand Rapids-Kentwood, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US24420</t>
   </si>
   <si>
-    <t>Grants Pass, OR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US24500</t>
   </si>
   <si>
-    <t>Great Falls, MT Metro Area</t>
-  </si>
-  <si>
     <t>310M500US24540</t>
   </si>
   <si>
-    <t>Greeley, CO Metro Area</t>
-  </si>
-  <si>
     <t>310M500US24580</t>
   </si>
   <si>
-    <t>Green Bay, WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US24660</t>
   </si>
   <si>
-    <t>Greensboro-High Point, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US24780</t>
   </si>
   <si>
-    <t>Greenville, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US24860</t>
   </si>
   <si>
-    <t>Greenville-Anderson, SC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US25020</t>
   </si>
   <si>
-    <t>Guayama, PR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US25060</t>
   </si>
   <si>
-    <t>Gulfport-Biloxi, MS Metro Area</t>
-  </si>
-  <si>
     <t>310M500US25180</t>
   </si>
   <si>
-    <t>Hagerstown-Martinsburg, MD-WV Metro Area</t>
-  </si>
-  <si>
     <t>310M500US25220</t>
   </si>
   <si>
-    <t>Hammond, LA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US25260</t>
   </si>
   <si>
-    <t>Hanford-Corcoran, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US25420</t>
   </si>
   <si>
-    <t>Harrisburg-Carlisle, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US25500</t>
   </si>
   <si>
-    <t>Harrisonburg, VA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US25540</t>
   </si>
   <si>
-    <t>Hartford-East Hartford-Middletown, CT Metro Area</t>
-  </si>
-  <si>
     <t>310M500US25620</t>
   </si>
   <si>
-    <t>Hattiesburg, MS Metro Area</t>
-  </si>
-  <si>
     <t>310M500US25860</t>
   </si>
   <si>
-    <t>Hickory-Lenoir-Morganton, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US25940</t>
   </si>
   <si>
-    <t>Hilton Head Island-Bluffton, SC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US25980</t>
   </si>
   <si>
-    <t>Hinesville, GA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US26140</t>
   </si>
   <si>
-    <t>Homosassa Springs, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US26300</t>
   </si>
   <si>
-    <t>Hot Springs, AR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US26380</t>
   </si>
   <si>
-    <t>Houma-Thibodaux, LA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US26420</t>
   </si>
   <si>
-    <t>Houston-The Woodlands-Sugar Land, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US26580</t>
   </si>
   <si>
-    <t>Huntington-Ashland, WV-KY-OH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US26620</t>
   </si>
   <si>
-    <t>Huntsville, AL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US26820</t>
   </si>
   <si>
-    <t>Idaho Falls, ID Metro Area</t>
-  </si>
-  <si>
     <t>310M500US26900</t>
   </si>
   <si>
-    <t>Indianapolis-Carmel-Anderson, IN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US26980</t>
   </si>
   <si>
-    <t>Iowa City, IA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US27060</t>
   </si>
   <si>
-    <t>Ithaca, NY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US27100</t>
   </si>
   <si>
-    <t>Jackson, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US27140</t>
   </si>
   <si>
-    <t>Jackson, MS Metro Area</t>
-  </si>
-  <si>
     <t>310M500US27180</t>
   </si>
   <si>
-    <t>Jackson, TN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US27260</t>
   </si>
   <si>
-    <t>Jacksonville, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US27340</t>
   </si>
   <si>
-    <t>Jacksonville, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US27500</t>
   </si>
   <si>
-    <t>Janesville-Beloit, WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US27620</t>
   </si>
   <si>
-    <t>Jefferson City, MO Metro Area</t>
-  </si>
-  <si>
     <t>310M500US27740</t>
   </si>
   <si>
-    <t>Johnson City, TN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US27780</t>
   </si>
   <si>
-    <t>Johnstown, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US27860</t>
   </si>
   <si>
-    <t>Jonesboro, AR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US27900</t>
   </si>
   <si>
-    <t>Joplin, MO Metro Area</t>
-  </si>
-  <si>
     <t>310M500US27980</t>
   </si>
   <si>
-    <t>Kahului-Wailuku-Lahaina, HI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US28020</t>
   </si>
   <si>
-    <t>Kalamazoo-Portage, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US28100</t>
   </si>
   <si>
-    <t>Kankakee, IL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US28140</t>
   </si>
   <si>
-    <t>Kansas City, MO-KS Metro Area</t>
-  </si>
-  <si>
     <t>310M500US28420</t>
   </si>
   <si>
-    <t>Kennewick-Richland, WA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US28660</t>
   </si>
   <si>
-    <t>Killeen-Temple, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US28700</t>
   </si>
   <si>
-    <t>Kingsport-Bristol, TN-VA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US28740</t>
   </si>
   <si>
-    <t>Kingston, NY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US28940</t>
   </si>
   <si>
-    <t>Knoxville, TN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US29020</t>
   </si>
   <si>
-    <t>Kokomo, IN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US29100</t>
   </si>
   <si>
-    <t>La Crosse-Onalaska, WI-MN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US29180</t>
   </si>
   <si>
-    <t>Lafayette, LA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US29200</t>
   </si>
   <si>
-    <t>Lafayette-West Lafayette, IN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US29340</t>
   </si>
   <si>
-    <t>Lake Charles, LA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US29420</t>
   </si>
   <si>
-    <t>Lake Havasu City-Kingman, AZ Metro Area</t>
-  </si>
-  <si>
     <t>310M500US29460</t>
   </si>
   <si>
-    <t>Lakeland-Winter Haven, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US29540</t>
   </si>
   <si>
-    <t>Lancaster, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US29620</t>
   </si>
   <si>
-    <t>Lansing-East Lansing, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US29700</t>
   </si>
   <si>
-    <t>Laredo, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US29740</t>
   </si>
   <si>
-    <t>Las Cruces, NM Metro Area</t>
-  </si>
-  <si>
     <t>310M500US29820</t>
   </si>
   <si>
-    <t>Las Vegas-Henderson-Paradise, NV Metro Area</t>
-  </si>
-  <si>
     <t>310M500US29940</t>
   </si>
   <si>
-    <t>Lawrence, KS Metro Area</t>
-  </si>
-  <si>
     <t>310M500US30020</t>
   </si>
   <si>
-    <t>Lawton, OK Metro Area</t>
-  </si>
-  <si>
     <t>310M500US30140</t>
   </si>
   <si>
-    <t>Lebanon, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US30300</t>
   </si>
   <si>
-    <t>Lewiston, ID-WA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US30340</t>
   </si>
   <si>
-    <t>Lewiston-Auburn, ME Metro Area</t>
-  </si>
-  <si>
     <t>310M500US30460</t>
   </si>
   <si>
-    <t>Lexington-Fayette, KY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US30620</t>
   </si>
   <si>
-    <t>Lima, OH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US30700</t>
   </si>
   <si>
-    <t>Lincoln, NE Metro Area</t>
-  </si>
-  <si>
     <t>310M500US30780</t>
   </si>
   <si>
-    <t>Little Rock-North Little Rock-Conway, AR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US30860</t>
   </si>
   <si>
-    <t>Logan, UT-ID Metro Area</t>
-  </si>
-  <si>
     <t>310M500US30980</t>
   </si>
   <si>
-    <t>Longview, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US31020</t>
   </si>
   <si>
-    <t>Longview, WA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US31080</t>
   </si>
   <si>
-    <t>Los Angeles-Long Beach-Anaheim, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US31140</t>
   </si>
   <si>
-    <t>Louisville/Jefferson County, KY-IN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US31180</t>
   </si>
   <si>
-    <t>Lubbock, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US31340</t>
   </si>
   <si>
-    <t>Lynchburg, VA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US31420</t>
   </si>
   <si>
-    <t>Macon-Bibb County, GA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US31460</t>
   </si>
   <si>
-    <t>Madera, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US31540</t>
   </si>
   <si>
-    <t>Madison, WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US31700</t>
   </si>
   <si>
-    <t>Manchester-Nashua, NH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US31740</t>
   </si>
   <si>
-    <t>Manhattan, KS Metro Area</t>
-  </si>
-  <si>
     <t>310M500US31860</t>
   </si>
   <si>
-    <t>Mankato, MN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US31900</t>
   </si>
   <si>
-    <t>Mansfield, OH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US32420</t>
   </si>
   <si>
-    <t>MayagÃ¼ez, PR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US32580</t>
   </si>
   <si>
-    <t>McAllen-Edinburg-Mission, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US32780</t>
   </si>
   <si>
-    <t>Medford, OR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US32820</t>
   </si>
   <si>
-    <t>Memphis, TN-MS-AR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US32900</t>
   </si>
   <si>
-    <t>Merced, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US33100</t>
   </si>
   <si>
-    <t>Miami-Fort Lauderdale-Pompano Beach, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US33140</t>
   </si>
   <si>
-    <t>Michigan City-La Porte, IN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US33220</t>
   </si>
   <si>
-    <t>Midland, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US33260</t>
   </si>
   <si>
-    <t>Midland, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US33340</t>
   </si>
   <si>
-    <t>Milwaukee-Waukesha, WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US33460</t>
   </si>
   <si>
-    <t>Minneapolis-St. Paul-Bloomington, MN-WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US33540</t>
   </si>
   <si>
-    <t>Missoula, MT Metro Area</t>
-  </si>
-  <si>
     <t>310M500US33660</t>
   </si>
   <si>
-    <t>Mobile, AL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US33700</t>
   </si>
   <si>
-    <t>Modesto, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US33740</t>
   </si>
   <si>
-    <t>Monroe, LA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US33780</t>
   </si>
   <si>
-    <t>Monroe, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US33860</t>
   </si>
   <si>
-    <t>Montgomery, AL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US34060</t>
   </si>
   <si>
-    <t>Morgantown, WV Metro Area</t>
-  </si>
-  <si>
     <t>310M500US34100</t>
   </si>
   <si>
-    <t>Morristown, TN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US34580</t>
   </si>
   <si>
-    <t>Mount Vernon-Anacortes, WA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US34620</t>
   </si>
   <si>
-    <t>Muncie, IN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US34740</t>
   </si>
   <si>
-    <t>Muskegon, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US34820</t>
   </si>
   <si>
-    <t>Myrtle Beach-Conway-North Myrtle Beach, SC-NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US34900</t>
   </si>
   <si>
-    <t>Napa, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US34940</t>
   </si>
   <si>
-    <t>Naples-Marco Island, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US34980</t>
   </si>
   <si>
-    <t>Nashville-Davidson--Murfreesboro--Franklin, TN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US35100</t>
   </si>
   <si>
-    <t>New Bern, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US35300</t>
   </si>
   <si>
-    <t>New Haven-Milford, CT Metro Area</t>
-  </si>
-  <si>
     <t>310M500US35380</t>
   </si>
   <si>
-    <t>New Orleans-Metairie, LA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US35620</t>
   </si>
   <si>
-    <t>New York-Newark-Jersey City, NY-NJ-PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US35660</t>
   </si>
   <si>
-    <t>Niles, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US35840</t>
   </si>
   <si>
-    <t>North Port-Sarasota-Bradenton, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US35980</t>
   </si>
   <si>
-    <t>Norwich-New London, CT Metro Area</t>
-  </si>
-  <si>
     <t>310M500US36100</t>
   </si>
   <si>
-    <t>Ocala, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US36140</t>
   </si>
   <si>
-    <t>Ocean City, NJ Metro Area</t>
-  </si>
-  <si>
     <t>310M500US36220</t>
   </si>
   <si>
-    <t>Odessa, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US36260</t>
   </si>
   <si>
-    <t>Ogden-Clearfield, UT Metro Area</t>
-  </si>
-  <si>
     <t>310M500US36420</t>
   </si>
   <si>
-    <t>Oklahoma City, OK Metro Area</t>
-  </si>
-  <si>
     <t>310M500US36500</t>
   </si>
   <si>
-    <t>Olympia-Lacey-Tumwater, WA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US36540</t>
   </si>
   <si>
-    <t>Omaha-Council Bluffs, NE-IA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US36740</t>
   </si>
   <si>
-    <t>Orlando-Kissimmee-Sanford, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US36780</t>
   </si>
   <si>
-    <t>Oshkosh-Neenah, WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US36980</t>
   </si>
   <si>
-    <t>Owensboro, KY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US37100</t>
   </si>
   <si>
-    <t>Oxnard-Thousand Oaks-Ventura, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US37340</t>
   </si>
   <si>
-    <t>Palm Bay-Melbourne-Titusville, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US37460</t>
   </si>
   <si>
-    <t>Panama City, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US37620</t>
   </si>
   <si>
-    <t>Parkersburg-Vienna, WV Metro Area</t>
-  </si>
-  <si>
     <t>310M500US37860</t>
   </si>
   <si>
-    <t>Pensacola-Ferry Pass-Brent, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US37900</t>
   </si>
   <si>
-    <t>Peoria, IL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US37980</t>
   </si>
   <si>
-    <t>Philadelphia-Camden-Wilmington, PA-NJ-DE-MD Metro Area</t>
-  </si>
-  <si>
     <t>310M500US38060</t>
   </si>
   <si>
-    <t>Phoenix-Mesa-Chandler, AZ Metro Area</t>
-  </si>
-  <si>
     <t>310M500US38220</t>
   </si>
   <si>
-    <t>Pine Bluff, AR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US38300</t>
   </si>
   <si>
-    <t>Pittsburgh, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US38340</t>
   </si>
   <si>
-    <t>Pittsfield, MA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US38540</t>
   </si>
   <si>
-    <t>Pocatello, ID Metro Area</t>
-  </si>
-  <si>
     <t>310M500US38660</t>
   </si>
   <si>
-    <t>Ponce, PR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US38860</t>
   </si>
   <si>
-    <t>Portland-South Portland, ME Metro Area</t>
-  </si>
-  <si>
     <t>310M500US38900</t>
   </si>
   <si>
-    <t>Portland-Vancouver-Hillsboro, OR-WA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US38940</t>
   </si>
   <si>
-    <t>Port St. Lucie, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US39100</t>
   </si>
   <si>
-    <t>Poughkeepsie-Newburgh-Middletown, NY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US39150</t>
   </si>
   <si>
-    <t>Prescott Valley-Prescott, AZ Metro Area</t>
-  </si>
-  <si>
     <t>310M500US39300</t>
   </si>
   <si>
-    <t>Providence-Warwick, RI-MA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US39340</t>
   </si>
   <si>
-    <t>Provo-Orem, UT Metro Area</t>
-  </si>
-  <si>
     <t>310M500US39380</t>
   </si>
   <si>
-    <t>Pueblo, CO Metro Area</t>
-  </si>
-  <si>
     <t>310M500US39460</t>
   </si>
   <si>
-    <t>Punta Gorda, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US39540</t>
   </si>
   <si>
-    <t>Racine, WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US39580</t>
   </si>
   <si>
-    <t>Raleigh-Cary, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US39660</t>
   </si>
   <si>
-    <t>Rapid City, SD Metro Area</t>
-  </si>
-  <si>
     <t>310M500US39740</t>
   </si>
   <si>
-    <t>Reading, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US39820</t>
   </si>
   <si>
-    <t>Redding, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US39900</t>
   </si>
   <si>
-    <t>Reno, NV Metro Area</t>
-  </si>
-  <si>
     <t>310M500US40060</t>
   </si>
   <si>
-    <t>Richmond, VA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US40140</t>
   </si>
   <si>
-    <t>Riverside-San Bernardino-Ontario, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US40220</t>
   </si>
   <si>
-    <t>Roanoke, VA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US40340</t>
   </si>
   <si>
-    <t>Rochester, MN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US40380</t>
   </si>
   <si>
-    <t>Rochester, NY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US40420</t>
   </si>
   <si>
-    <t>Rockford, IL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US40580</t>
   </si>
   <si>
-    <t>Rocky Mount, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US40660</t>
   </si>
   <si>
-    <t>Rome, GA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US40900</t>
   </si>
   <si>
-    <t>Sacramento-Roseville-Folsom, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US40980</t>
   </si>
   <si>
-    <t>Saginaw, MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41060</t>
   </si>
   <si>
-    <t>St. Cloud, MN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41100</t>
   </si>
   <si>
-    <t>St. George, UT Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41140</t>
   </si>
   <si>
-    <t>St. Joseph, MO-KS Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41180</t>
   </si>
   <si>
-    <t>St. Louis, MO-IL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41420</t>
   </si>
   <si>
-    <t>Salem, OR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41500</t>
   </si>
   <si>
-    <t>Salinas, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41540</t>
   </si>
   <si>
-    <t>Salisbury, MD-DE Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41620</t>
   </si>
   <si>
-    <t>Salt Lake City, UT Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41660</t>
   </si>
   <si>
-    <t>San Angelo, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41700</t>
   </si>
   <si>
-    <t>San Antonio-New Braunfels, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41740</t>
   </si>
   <si>
-    <t>San Diego-Chula Vista-Carlsbad, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41860</t>
   </si>
   <si>
-    <t>San Francisco-Oakland-Berkeley, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41900</t>
   </si>
   <si>
-    <t>San GermÃ¡n, PR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41940</t>
   </si>
   <si>
-    <t>San Jose-Sunnyvale-Santa Clara, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US41980</t>
   </si>
   <si>
-    <t>San Juan-BayamÃ³n-Caguas, PR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US42020</t>
   </si>
   <si>
-    <t>San Luis Obispo-Paso Robles, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US42100</t>
   </si>
   <si>
-    <t>Santa Cruz-Watsonville, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US42140</t>
   </si>
   <si>
-    <t>Santa Fe, NM Metro Area</t>
-  </si>
-  <si>
     <t>310M500US42200</t>
   </si>
   <si>
-    <t>Santa Maria-Santa Barbara, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US42220</t>
   </si>
   <si>
-    <t>Santa Rosa-Petaluma, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US42340</t>
   </si>
   <si>
-    <t>Savannah, GA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US42540</t>
   </si>
   <si>
-    <t>Scranton--Wilkes-Barre, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US42660</t>
   </si>
   <si>
-    <t>Seattle-Tacoma-Bellevue, WA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US42680</t>
   </si>
   <si>
-    <t>Sebastian-Vero Beach, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US42700</t>
   </si>
   <si>
-    <t>Sebring-Avon Park, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US43100</t>
   </si>
   <si>
-    <t>Sheboygan, WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US43300</t>
   </si>
   <si>
-    <t>Sherman-Denison, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US43340</t>
   </si>
   <si>
-    <t>Shreveport-Bossier City, LA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US43420</t>
   </si>
   <si>
-    <t>Sierra Vista-Douglas, AZ Metro Area</t>
-  </si>
-  <si>
     <t>310M500US43580</t>
   </si>
   <si>
-    <t>Sioux City, IA-NE-SD Metro Area</t>
-  </si>
-  <si>
     <t>310M500US43620</t>
   </si>
   <si>
-    <t>Sioux Falls, SD Metro Area</t>
-  </si>
-  <si>
     <t>310M500US43780</t>
   </si>
   <si>
-    <t>South Bend-Mishawaka, IN-MI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US43900</t>
   </si>
   <si>
-    <t>Spartanburg, SC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US44060</t>
   </si>
   <si>
-    <t>Spokane-Spokane Valley, WA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US44100</t>
   </si>
   <si>
-    <t>Springfield, IL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US44140</t>
   </si>
   <si>
-    <t>Springfield, MA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US44180</t>
   </si>
   <si>
-    <t>Springfield, MO Metro Area</t>
-  </si>
-  <si>
     <t>310M500US44220</t>
   </si>
   <si>
-    <t>Springfield, OH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US44300</t>
   </si>
   <si>
-    <t>State College, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US44420</t>
   </si>
   <si>
-    <t>Staunton, VA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US44700</t>
   </si>
   <si>
-    <t>Stockton, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US44940</t>
   </si>
   <si>
-    <t>Sumter, SC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US45060</t>
   </si>
   <si>
-    <t>Syracuse, NY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US45220</t>
   </si>
   <si>
-    <t>Tallahassee, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US45300</t>
   </si>
   <si>
-    <t>Tampa-St. Petersburg-Clearwater, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US45460</t>
   </si>
   <si>
-    <t>Terre Haute, IN Metro Area</t>
-  </si>
-  <si>
     <t>310M500US45500</t>
   </si>
   <si>
-    <t>Texarkana, TX-AR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US45540</t>
   </si>
   <si>
-    <t>The Villages, FL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US45780</t>
   </si>
   <si>
-    <t>Toledo, OH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US45820</t>
   </si>
   <si>
-    <t>Topeka, KS Metro Area</t>
-  </si>
-  <si>
     <t>310M500US45940</t>
   </si>
   <si>
-    <t>Trenton-Princeton, NJ Metro Area</t>
-  </si>
-  <si>
     <t>310M500US46060</t>
   </si>
   <si>
-    <t>Tucson, AZ Metro Area</t>
-  </si>
-  <si>
     <t>310M500US46140</t>
   </si>
   <si>
-    <t>Tulsa, OK Metro Area</t>
-  </si>
-  <si>
     <t>310M500US46220</t>
   </si>
   <si>
-    <t>Tuscaloosa, AL Metro Area</t>
-  </si>
-  <si>
     <t>310M500US46300</t>
   </si>
   <si>
-    <t>Twin Falls, ID Metro Area</t>
-  </si>
-  <si>
     <t>310M500US46340</t>
   </si>
   <si>
-    <t>Tyler, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US46520</t>
   </si>
   <si>
-    <t>Urban Honolulu, HI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US46540</t>
   </si>
   <si>
-    <t>Utica-Rome, NY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US46660</t>
   </si>
   <si>
-    <t>Valdosta, GA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US46700</t>
   </si>
   <si>
-    <t>Vallejo, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US47020</t>
   </si>
   <si>
-    <t>Victoria, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US47220</t>
   </si>
   <si>
-    <t>Vineland-Bridgeton, NJ Metro Area</t>
-  </si>
-  <si>
     <t>310M500US47260</t>
   </si>
   <si>
-    <t>Virginia Beach-Norfolk-Newport News, VA-NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US47300</t>
   </si>
   <si>
-    <t>Visalia, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US47380</t>
   </si>
   <si>
-    <t>Waco, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US47460</t>
   </si>
   <si>
-    <t>Walla Walla, WA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US47580</t>
   </si>
   <si>
-    <t>Warner Robins, GA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US47900</t>
   </si>
   <si>
-    <t>Washington-Arlington-Alexandria, DC-VA-MD-WV Metro Area</t>
-  </si>
-  <si>
     <t>310M500US47940</t>
   </si>
   <si>
-    <t>Waterloo-Cedar Falls, IA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US48060</t>
   </si>
   <si>
-    <t>Watertown-Fort Drum, NY Metro Area</t>
-  </si>
-  <si>
     <t>310M500US48140</t>
   </si>
   <si>
-    <t>Wausau-Weston, WI Metro Area</t>
-  </si>
-  <si>
     <t>310M500US48260</t>
   </si>
   <si>
-    <t>Weirton-Steubenville, WV-OH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US48300</t>
   </si>
   <si>
-    <t>Wenatchee, WA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US48540</t>
   </si>
   <si>
-    <t>Wheeling, WV-OH Metro Area</t>
-  </si>
-  <si>
     <t>310M500US48620</t>
   </si>
   <si>
-    <t>Wichita, KS Metro Area</t>
-  </si>
-  <si>
     <t>310M500US48660</t>
   </si>
   <si>
-    <t>Wichita Falls, TX Metro Area</t>
-  </si>
-  <si>
     <t>310M500US48700</t>
   </si>
   <si>
-    <t>Williamsport, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US48900</t>
   </si>
   <si>
-    <t>Wilmington, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US49020</t>
   </si>
   <si>
-    <t>Winchester, VA-WV Metro Area</t>
-  </si>
-  <si>
     <t>310M500US49180</t>
   </si>
   <si>
-    <t>Winston-Salem, NC Metro Area</t>
-  </si>
-  <si>
     <t>310M500US49340</t>
   </si>
   <si>
-    <t>Worcester, MA-CT Metro Area</t>
-  </si>
-  <si>
     <t>310M500US49420</t>
   </si>
   <si>
-    <t>Yakima, WA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US49500</t>
   </si>
   <si>
-    <t>Yauco, PR Metro Area</t>
-  </si>
-  <si>
     <t>310M500US49620</t>
   </si>
   <si>
-    <t>York-Hanover, PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US49660</t>
   </si>
   <si>
-    <t>Youngstown-Warren-Boardman, OH-PA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US49700</t>
   </si>
   <si>
-    <t>Yuba City, CA Metro Area</t>
-  </si>
-  <si>
     <t>310M500US49740</t>
   </si>
   <si>
-    <t>Yuma, AZ Metro Area</t>
+    <t>Med_Income</t>
+  </si>
+  <si>
+    <t>MOE_Med_Inc</t>
+  </si>
+  <si>
+    <t>geoID</t>
+  </si>
+  <si>
+    <t>RegionName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abilene, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguadilla-Isabela, PR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akron, OH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albany, GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albany-Lebanon, OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albany-Schenectady-Troy, NY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albuquerque, NM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandria, LA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allentown-Bethlehem-Easton, PA-NJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altoona, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amarillo, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ames, IA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchorage, AK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ann Arbor, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anniston-Oxford, AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appleton, WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arecibo, PR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asheville, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athens-Clarke County, GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlanta-Sandy Springs-Alpharetta, GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic City-Hammonton, NJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auburn-Opelika, AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augusta-Richmond County, GA-SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austin-Round Rock-Georgetown, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakersfield, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baltimore-Columbia-Towson, MD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangor, ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barnstable Town, MA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baton Rouge, LA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Creek, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay City, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaumont-Port Arthur, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beckley, WV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bellingham, WA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bend, OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billings, MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binghamton, NY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmingham-Hoover, AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bismarck, ND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blacksburg-Christiansburg, VA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloomington, IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloomington, IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloomsburg-Berwick, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boise City, ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston-Cambridge-Newton, MA-NH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boulder, CO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowling Green, KY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremerton-Silverdale-Port Orchard, WA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgeport-Stamford-Norwalk, CT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brownsville-Harlingen, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunswick, GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffalo-Cheektowaga, NY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burlington, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burlington-South Burlington, VT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">California-Lexington Park, MD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canton-Massillon, OH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Coral-Fort Myers, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Girardeau, MO-IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbondale-Marion, IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carson City, NV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casper, WY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cedar Rapids, IA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chambersburg-Waynesboro, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champaign-Urbana, IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charleston, WV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charleston-North Charleston, SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte-Concord-Gastonia, NC-SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlottesville, VA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chattanooga, TN-GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheyenne, WY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago-Naperville-Elgin, IL-IN-WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cincinnati, OH-KY-IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarksville, TN-KY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleveland, TN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleveland-Elyria, OH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coeur d'Alene, ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Station-Bryan, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado Springs, CO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia, MO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia, SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbus, GA-AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbus, IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbus, OH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corpus Christi, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corvallis, OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crestview-Fort Walton Beach-Destin, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumberland, MD-WV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallas-Fort Worth-Arlington, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalton, GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danville, IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daphne-Fairhope-Foley, AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davenport-Moline-Rock Island, IA-IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayton-Kettering, OH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decatur, AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decatur, IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deltona-Daytona Beach-Ormond Beach, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denver-Aurora-Lakewood, CO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des Moines-West Des Moines, IA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detroit-Warren-Dearborn, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dothan, AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dover, DE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubuque, IA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duluth, MN-WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durham-Chapel Hill, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Stroudsburg, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eau Claire, WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Centro, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Paso, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabethtown-Fort Knox, KY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elkhart-Goshen, IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elmira, NY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enid, OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erie, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eugene-Springfield, OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evansville, IN-KY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairbanks, AK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fargo, ND-MN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmington, NM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fayetteville, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fayetteville-Springdale-Rogers, AR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flagstaff, AZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flint, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florence, SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florence-Muscle Shoals, AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fond du Lac, WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Collins, CO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Smith, AR-OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Wayne, IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresno, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadsden, AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gainesville, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gainesville, GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gettysburg, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glens Falls, NY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldsboro, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Forks, ND-MN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Island, NE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Junction, CO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Rapids-Kentwood, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grants Pass, OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Falls, MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greeley, CO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Bay, WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greensboro-High Point, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenville, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenville-Anderson, SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guayama, PR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulfport-Biloxi, MS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hagerstown-Martinsburg, MD-WV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammond, LA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanford-Corcoran, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrisburg-Carlisle, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrisonburg, VA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hartford-East Hartford-Middletown, CT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hattiesburg, MS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hickory-Lenoir-Morganton, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilton Head Island-Bluffton, SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinesville, GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homosassa Springs, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Springs, AR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houma-Thibodaux, LA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston-The Woodlands-Sugar Land, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huntington-Ashland, WV-KY-OH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huntsville, AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idaho Falls, ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indianapolis-Carmel-Anderson, IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa City, IA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ithaca, NY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jackson, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jackson, MS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jackson, TN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacksonville, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacksonville, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janesville-Beloit, WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jefferson City, MO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson City, TN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnstown, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonesboro, AR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joplin, MO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kahului-Wailuku-Lahaina, HI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalamazoo-Portage, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kankakee, IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas City, MO-KS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennewick-Richland, WA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Killeen-Temple, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingsport-Bristol, TN-VA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingston, NY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knoxville, TN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kokomo, IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Crosse-Onalaska, WI-MN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lafayette, LA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lafayette-West Lafayette, IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Charles, LA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Havasu City-Kingman, AZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakeland-Winter Haven, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lancaster, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lansing-East Lansing, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laredo, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Cruces, NM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Vegas-Henderson-Paradise, NV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawrence, KS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawton, OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewiston, ID-WA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewiston-Auburn, ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lexington-Fayette, KY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lima, OH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lincoln, NE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Rock-North Little Rock-Conway, AR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logan, UT-ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longview, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longview, WA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles-Long Beach-Anaheim, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisville/Jefferson County, KY-IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lubbock, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lynchburg, VA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macon-Bibb County, GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madison, WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester-Nashua, NH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manhattan, KS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mankato, MN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansfield, OH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MayagÃ¼ez, PR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">McAllen-Edinburg-Mission, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medford, OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memphis, TN-MS-AR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merced, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami-Fort Lauderdale-Pompano Beach, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan City-La Porte, IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midland, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midland, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milwaukee-Waukesha, WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minneapolis-St. Paul-Bloomington, MN-WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missoula, MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile, AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modesto, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monroe, LA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monroe, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montgomery, AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morgantown, WV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morristown, TN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mount Vernon-Anacortes, WA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muncie, IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muskegon, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrtle Beach-Conway-North Myrtle Beach, SC-NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napa, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naples-Marco Island, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nashville-Davidson--Murfreesboro--Franklin, TN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Bern, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Haven-Milford, CT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Orleans-Metairie, LA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York-Newark-Jersey City, NY-NJ-PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niles, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Port-Sarasota-Bradenton, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwich-New London, CT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocala, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean City, NJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odessa, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogden-Clearfield, UT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma City, OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympia-Lacey-Tumwater, WA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omaha-Council Bluffs, NE-IA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando-Kissimmee-Sanford, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oshkosh-Neenah, WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owensboro, KY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxnard-Thousand Oaks-Ventura, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palm Bay-Melbourne-Titusville, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama City, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parkersburg-Vienna, WV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensacola-Ferry Pass-Brent, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peoria, IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philadelphia-Camden-Wilmington, PA-NJ-DE-MD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenix-Mesa-Chandler, AZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pine Bluff, AR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pittsburgh, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pittsfield, MA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pocatello, ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponce, PR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port St. Lucie, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portland-South Portland, ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portland-Vancouver-Hillsboro, OR-WA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poughkeepsie-Newburgh-Middletown, NY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescott Valley-Prescott, AZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providence-Warwick, RI-MA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provo-Orem, UT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pueblo, CO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punta Gorda, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racine, WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raleigh-Cary, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapid City, SD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redding, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reno, NV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond, VA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside-San Bernardino-Ontario, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roanoke, VA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rochester, MN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rochester, NY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockford, IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocky Mount, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rome, GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacramento-Roseville-Folsom, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saginaw, MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salem, OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salinas, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salisbury, MD-DE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salt Lake City, UT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Angelo, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Antonio-New Braunfels, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego-Chula Vista-Carlsbad, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Francisco-Oakland-Berkeley, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San GermÃ¡n, PR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Jose-Sunnyvale-Santa Clara, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Juan-BayamÃ³n-Caguas, PR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Obispo-Paso Robles, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Cruz-Watsonville, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Fe, NM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Maria-Santa Barbara, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Rosa-Petaluma, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savannah, GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scranton--Wilkes-Barre, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seattle-Tacoma-Bellevue, WA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian-Vero Beach, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebring-Avon Park, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheboygan, WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherman-Denison, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shreveport-Bossier City, LA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Vista-Douglas, AZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sioux City, IA-NE-SD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sioux Falls, SD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Bend-Mishawaka, IN-MI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spartanburg, SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spokane-Spokane Valley, WA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield, IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield, MA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield, MO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield, OH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Cloud, MN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. George, UT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Joseph, MO-KS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Louis, MO-IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State College, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staunton, VA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stockton, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumter, SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syracuse, NY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tallahassee, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa-St. Petersburg-Clearwater, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terre Haute, IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texarkana, TX-AR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Villages, FL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toledo, OH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topeka, KS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenton-Princeton, NJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tucson, AZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulsa, OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuscaloosa, AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Falls, ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban Honolulu, HI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utica-Rome, NY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valdosta, GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vallejo, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vineland-Bridgeton, NJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia Beach-Norfolk-Newport News, VA-NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visalia, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waco, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walla Walla, WA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warner Robins, GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington-Arlington-Alexandria, DC-VA-MD-WV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterloo-Cedar Falls, IA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watertown-Fort Drum, NY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wausau-Weston, WI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weirton-Steubenville, WV-OH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee, WA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheeling, WV-OH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wichita Falls, TX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wichita, KS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Williamsport, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilmington, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winchester, VA-WV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winston-Salem, NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worcester, MA-CT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yakima, WA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yauco, PR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">York-Hanover, PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youngstown-Warren-Boardman, OH-PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuba City, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuma, AZ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3226,35 +3226,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>392</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>396</v>
       </c>
       <c r="C2">
         <v>54808</v>
@@ -3265,10 +3268,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>397</v>
       </c>
       <c r="C3">
         <v>16311</v>
@@ -3279,10 +3282,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>398</v>
       </c>
       <c r="C4">
         <v>57158</v>
@@ -3293,10 +3296,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>399</v>
       </c>
       <c r="C5">
         <v>40625</v>
@@ -3307,10 +3310,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>400</v>
       </c>
       <c r="C6">
         <v>61488</v>
@@ -3321,10 +3324,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>401</v>
       </c>
       <c r="C7">
         <v>73398</v>
@@ -3335,10 +3338,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>402</v>
       </c>
       <c r="C8">
         <v>58512</v>
@@ -3349,10 +3352,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="C9">
         <v>50553</v>
@@ -3363,10 +3366,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>404</v>
       </c>
       <c r="C10">
         <v>70793</v>
@@ -3377,10 +3380,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>405</v>
       </c>
       <c r="C11">
         <v>51004</v>
@@ -3391,10 +3394,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>406</v>
       </c>
       <c r="C12">
         <v>53510</v>
@@ -3405,10 +3408,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>407</v>
       </c>
       <c r="C13">
         <v>62181</v>
@@ -3419,10 +3422,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>408</v>
       </c>
       <c r="C14">
         <v>80676</v>
@@ -3433,10 +3436,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>409</v>
       </c>
       <c r="C15">
         <v>76576</v>
@@ -3447,10 +3450,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>410</v>
       </c>
       <c r="C16">
         <v>48156</v>
@@ -3461,10 +3464,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>411</v>
       </c>
       <c r="C17">
         <v>68335</v>
@@ -3475,10 +3478,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>412</v>
       </c>
       <c r="C18">
         <v>19163</v>
@@ -3489,10 +3492,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>413</v>
       </c>
       <c r="C19">
         <v>57428</v>
@@ -3503,10 +3506,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>414</v>
       </c>
       <c r="C20">
         <v>50962</v>
@@ -3517,10 +3520,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>415</v>
       </c>
       <c r="C21">
         <v>71742</v>
@@ -3531,10 +3534,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="C22">
         <v>63389</v>
@@ -3545,10 +3548,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>417</v>
       </c>
       <c r="C23">
         <v>53712</v>
@@ -3559,10 +3562,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>418</v>
       </c>
       <c r="C24">
         <v>55143</v>
@@ -3573,10 +3576,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
       <c r="C25">
         <v>80954</v>
@@ -3587,10 +3590,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>420</v>
       </c>
       <c r="C26">
         <v>53067</v>
@@ -3601,10 +3604,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>421</v>
       </c>
       <c r="C27">
         <v>83160</v>
@@ -3615,10 +3618,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>422</v>
       </c>
       <c r="C28">
         <v>50449</v>
@@ -3629,10 +3632,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>423</v>
       </c>
       <c r="C29">
         <v>85042</v>
@@ -3643,10 +3646,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>424</v>
       </c>
       <c r="C30">
         <v>60746</v>
@@ -3657,10 +3660,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>425</v>
       </c>
       <c r="C31">
         <v>49055</v>
@@ -3671,10 +3674,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>426</v>
       </c>
       <c r="C32">
         <v>49610</v>
@@ -3685,10 +3688,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>427</v>
       </c>
       <c r="C33">
         <v>58818</v>
@@ -3699,10 +3702,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>428</v>
       </c>
       <c r="C34">
         <v>44785</v>
@@ -3713,10 +3716,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>429</v>
       </c>
       <c r="C35">
         <v>69372</v>
@@ -3727,10 +3730,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>430</v>
       </c>
       <c r="C36">
         <v>71643</v>
@@ -3741,10 +3744,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>431</v>
       </c>
       <c r="C37">
         <v>60962</v>
@@ -3755,10 +3758,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="C38">
         <v>53768</v>
@@ -3769,10 +3772,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="C39">
         <v>58366</v>
@@ -3783,10 +3786,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="C40">
         <v>70979</v>
@@ -3797,10 +3800,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>435</v>
       </c>
       <c r="C41">
         <v>56092</v>
@@ -3811,10 +3814,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>436</v>
       </c>
       <c r="C42">
         <v>68784</v>
@@ -3825,10 +3828,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>437</v>
       </c>
       <c r="C43">
         <v>52526</v>
@@ -3839,10 +3842,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>438</v>
       </c>
       <c r="C44">
         <v>56672</v>
@@ -3853,10 +3856,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>439</v>
       </c>
       <c r="C45">
         <v>66466</v>
@@ -3867,10 +3870,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>440</v>
       </c>
       <c r="C46">
         <v>94430</v>
@@ -3881,10 +3884,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>441</v>
       </c>
       <c r="C47">
         <v>88535</v>
@@ -3895,10 +3898,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>442</v>
       </c>
       <c r="C48">
         <v>51198</v>
@@ -3909,10 +3912,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>443</v>
       </c>
       <c r="C49">
         <v>79624</v>
@@ -3923,10 +3926,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>444</v>
       </c>
       <c r="C50">
         <v>97053</v>
@@ -3937,10 +3940,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>445</v>
       </c>
       <c r="C51">
         <v>41123</v>
@@ -3951,10 +3954,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>446</v>
       </c>
       <c r="C52">
         <v>57381</v>
@@ -3965,10 +3968,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>447</v>
       </c>
       <c r="C53">
         <v>60105</v>
@@ -3979,10 +3982,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>448</v>
       </c>
       <c r="C54">
         <v>58490</v>
@@ -3993,10 +3996,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>449</v>
       </c>
       <c r="C55">
         <v>74909</v>
@@ -4007,10 +4010,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>450</v>
       </c>
       <c r="C56">
         <v>87947</v>
@@ -4021,10 +4024,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="C57">
         <v>55706</v>
@@ -4035,10 +4038,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>452</v>
       </c>
       <c r="C58">
         <v>62240</v>
@@ -4049,10 +4052,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>453</v>
       </c>
       <c r="C59">
         <v>52624</v>
@@ -4063,10 +4066,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>454</v>
       </c>
       <c r="C60">
         <v>46882</v>
@@ -4077,10 +4080,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>455</v>
       </c>
       <c r="C61">
         <v>57270</v>
@@ -4091,10 +4094,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>456</v>
       </c>
       <c r="C62">
         <v>65034</v>
@@ -4105,10 +4108,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>457</v>
       </c>
       <c r="C63">
         <v>64088</v>
@@ -4119,10 +4122,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>458</v>
       </c>
       <c r="C64">
         <v>62484</v>
@@ -4133,10 +4136,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>459</v>
       </c>
       <c r="C65">
         <v>53081</v>
@@ -4147,10 +4150,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>460</v>
       </c>
       <c r="C66">
         <v>47500</v>
@@ -4161,10 +4164,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>461</v>
       </c>
       <c r="C67">
         <v>70505</v>
@@ -4175,10 +4178,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>462</v>
       </c>
       <c r="C68">
         <v>66399</v>
@@ -4189,10 +4192,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>463</v>
       </c>
       <c r="C69">
         <v>75907</v>
@@ -4203,10 +4206,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>464</v>
       </c>
       <c r="C70">
         <v>55366</v>
@@ -4217,10 +4220,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
       <c r="C71">
         <v>70567</v>
@@ -4231,10 +4234,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>466</v>
       </c>
       <c r="C72">
         <v>75379</v>
@@ -4245,10 +4248,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>467</v>
       </c>
       <c r="C73">
         <v>62563</v>
@@ -4259,10 +4262,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>468</v>
       </c>
       <c r="C74">
         <v>66825</v>
@@ -4273,10 +4276,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>469</v>
       </c>
       <c r="C75">
         <v>53547</v>
@@ -4287,10 +4290,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>470</v>
       </c>
       <c r="C76">
         <v>52178</v>
@@ -4301,10 +4304,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>471</v>
       </c>
       <c r="C77">
         <v>57228</v>
@@ -4315,10 +4318,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>472</v>
       </c>
       <c r="C78">
         <v>62579</v>
@@ -4329,10 +4332,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>473</v>
       </c>
       <c r="C79">
         <v>55670</v>
@@ -4343,10 +4346,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>474</v>
       </c>
       <c r="C80">
         <v>72633</v>
@@ -4357,10 +4360,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>475</v>
       </c>
       <c r="C81">
         <v>57359</v>
@@ -4371,10 +4374,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>476</v>
       </c>
       <c r="C82">
         <v>55725</v>
@@ -4385,10 +4388,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>477</v>
       </c>
       <c r="C83">
         <v>49013</v>
@@ -4399,10 +4402,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>478</v>
       </c>
       <c r="C84">
         <v>72555</v>
@@ -4413,10 +4416,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>479</v>
       </c>
       <c r="C85">
         <v>67207</v>
@@ -4427,10 +4430,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>480</v>
       </c>
       <c r="C86">
         <v>56991</v>
@@ -4441,10 +4444,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>481</v>
       </c>
       <c r="C87">
         <v>70835</v>
@@ -4455,10 +4458,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>482</v>
       </c>
       <c r="C88">
         <v>62627</v>
@@ -4469,10 +4472,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>483</v>
       </c>
       <c r="C89">
         <v>49729</v>
@@ -4483,10 +4486,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>484</v>
       </c>
       <c r="C90">
         <v>72265</v>
@@ -4497,10 +4500,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>485</v>
       </c>
       <c r="C91">
         <v>51967</v>
@@ -4511,10 +4514,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>486</v>
       </c>
       <c r="C92">
         <v>43111</v>
@@ -4525,10 +4528,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>487</v>
       </c>
       <c r="C93">
         <v>56439</v>
@@ -4539,10 +4542,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>488</v>
       </c>
       <c r="C94">
         <v>62001</v>
@@ -4553,10 +4556,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>489</v>
       </c>
       <c r="C95">
         <v>58169</v>
@@ -4567,10 +4570,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>490</v>
       </c>
       <c r="C96">
         <v>53447</v>
@@ -4581,10 +4584,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>491</v>
       </c>
       <c r="C97">
         <v>50839</v>
@@ -4595,10 +4598,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>492</v>
       </c>
       <c r="C98">
         <v>54533</v>
@@ -4609,10 +4612,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>493</v>
       </c>
       <c r="C99">
         <v>85641</v>
@@ -4623,10 +4626,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>494</v>
       </c>
       <c r="C100">
         <v>71164</v>
@@ -4637,10 +4640,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>495</v>
       </c>
       <c r="C101">
         <v>63474</v>
@@ -4651,10 +4654,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>496</v>
       </c>
       <c r="C102">
         <v>50010</v>
@@ -4665,10 +4668,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>497</v>
       </c>
       <c r="C103">
         <v>58001</v>
@@ -4679,10 +4682,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>498</v>
       </c>
       <c r="C104">
         <v>62178</v>
@@ -4693,10 +4696,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>499</v>
       </c>
       <c r="C105">
         <v>60316</v>
@@ -4707,10 +4710,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>500</v>
       </c>
       <c r="C106">
         <v>65303</v>
@@ -4721,10 +4724,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>501</v>
       </c>
       <c r="C107">
         <v>62413</v>
@@ -4735,10 +4738,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>502</v>
       </c>
       <c r="C108">
         <v>63460</v>
@@ -4749,10 +4752,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>503</v>
       </c>
       <c r="C109">
         <v>48472</v>
@@ -4763,10 +4766,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>227</v>
+        <v>504</v>
       </c>
       <c r="C110">
         <v>48823</v>
@@ -4777,10 +4780,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>505</v>
       </c>
       <c r="C111">
         <v>55246</v>
@@ -4791,10 +4794,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>506</v>
       </c>
       <c r="C112">
         <v>54531</v>
@@ -4805,10 +4808,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>507</v>
       </c>
       <c r="C113">
         <v>60782</v>
@@ -4819,10 +4822,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>229</v>
+        <v>508</v>
       </c>
       <c r="C114">
         <v>64929</v>
@@ -4833,10 +4836,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>231</v>
+        <v>509</v>
       </c>
       <c r="C115">
         <v>51818</v>
@@ -4847,10 +4850,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>510</v>
       </c>
       <c r="C116">
         <v>57325</v>
@@ -4861,10 +4864,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>511</v>
       </c>
       <c r="C117">
         <v>55584</v>
@@ -4875,10 +4878,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>512</v>
       </c>
       <c r="C118">
         <v>72065</v>
@@ -4889,10 +4892,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>513</v>
       </c>
       <c r="C119">
         <v>62820</v>
@@ -4903,10 +4906,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>241</v>
+        <v>514</v>
       </c>
       <c r="C120">
         <v>44321</v>
@@ -4917,10 +4920,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
+        <v>515</v>
       </c>
       <c r="C121">
         <v>47597</v>
@@ -4931,10 +4934,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>245</v>
+        <v>516</v>
       </c>
       <c r="C122">
         <v>61674</v>
@@ -4945,10 +4948,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>247</v>
+        <v>517</v>
       </c>
       <c r="C123">
         <v>58085</v>
@@ -4959,10 +4962,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>518</v>
       </c>
       <c r="C124">
         <v>50389</v>
@@ -4973,10 +4976,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>519</v>
       </c>
       <c r="C125">
         <v>48547</v>
@@ -4987,10 +4990,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>520</v>
       </c>
       <c r="C126">
         <v>45824</v>
@@ -5001,10 +5004,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>521</v>
       </c>
       <c r="C127">
         <v>65329</v>
@@ -5015,10 +5018,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>522</v>
       </c>
       <c r="C128">
         <v>75186</v>
@@ -5029,10 +5032,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>523</v>
       </c>
       <c r="C129">
         <v>45157</v>
@@ -5043,10 +5046,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>524</v>
       </c>
       <c r="C130">
         <v>57287</v>
@@ -5057,10 +5060,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>263</v>
+        <v>525</v>
       </c>
       <c r="C131">
         <v>57518</v>
@@ -5071,10 +5074,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>264</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
+        <v>526</v>
       </c>
       <c r="C132">
         <v>41447</v>
@@ -5085,10 +5088,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>527</v>
       </c>
       <c r="C133">
         <v>47762</v>
@@ -5099,10 +5102,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>269</v>
+        <v>528</v>
       </c>
       <c r="C134">
         <v>67467</v>
@@ -5113,10 +5116,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>271</v>
+        <v>529</v>
       </c>
       <c r="C135">
         <v>67715</v>
@@ -5127,10 +5130,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>530</v>
       </c>
       <c r="C136">
         <v>61255</v>
@@ -5141,10 +5144,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>274</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>531</v>
       </c>
       <c r="C137">
         <v>44596</v>
@@ -5155,10 +5158,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>276</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>277</v>
+        <v>532</v>
       </c>
       <c r="C138">
         <v>57301</v>
@@ -5169,10 +5172,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>278</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>533</v>
       </c>
       <c r="C139">
         <v>55907</v>
@@ -5183,10 +5186,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>281</v>
+        <v>534</v>
       </c>
       <c r="C140">
         <v>60500</v>
@@ -5197,10 +5200,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>283</v>
+        <v>535</v>
       </c>
       <c r="C141">
         <v>65739</v>
@@ -5211,10 +5214,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>536</v>
       </c>
       <c r="C142">
         <v>47573</v>
@@ -5225,10 +5228,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>286</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>287</v>
+        <v>537</v>
       </c>
       <c r="C143">
         <v>51227</v>
@@ -5239,10 +5242,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>288</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>289</v>
+        <v>538</v>
       </c>
       <c r="C144">
         <v>78615</v>
@@ -5253,10 +5256,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>290</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>291</v>
+        <v>539</v>
       </c>
       <c r="C145">
         <v>65026</v>
@@ -5267,10 +5270,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>293</v>
+        <v>540</v>
       </c>
       <c r="C146">
         <v>51770</v>
@@ -5281,10 +5284,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>295</v>
+        <v>541</v>
       </c>
       <c r="C147">
         <v>53401</v>
@@ -5295,10 +5298,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>297</v>
+        <v>542</v>
       </c>
       <c r="C148">
         <v>58621</v>
@@ -5309,10 +5312,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>298</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>543</v>
       </c>
       <c r="C149">
         <v>16655</v>
@@ -5323,10 +5326,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>300</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>544</v>
       </c>
       <c r="C150">
         <v>50642</v>
@@ -5337,10 +5340,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>302</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>303</v>
+        <v>545</v>
       </c>
       <c r="C151">
         <v>60095</v>
@@ -5351,10 +5354,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>304</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>305</v>
+        <v>546</v>
       </c>
       <c r="C152">
         <v>47825</v>
@@ -5365,10 +5368,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>306</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>307</v>
+        <v>547</v>
       </c>
       <c r="C153">
         <v>58453</v>
@@ -5379,10 +5382,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>308</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>309</v>
+        <v>548</v>
       </c>
       <c r="C154">
         <v>67069</v>
@@ -5393,10 +5396,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>310</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>311</v>
+        <v>549</v>
       </c>
       <c r="C155">
         <v>60740</v>
@@ -5407,10 +5410,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>312</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>313</v>
+        <v>550</v>
       </c>
       <c r="C156">
         <v>77005</v>
@@ -5421,10 +5424,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>314</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>315</v>
+        <v>551</v>
       </c>
       <c r="C157">
         <v>48359</v>
@@ -5435,10 +5438,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>316</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>317</v>
+        <v>552</v>
       </c>
       <c r="C158">
         <v>50631</v>
@@ -5449,10 +5452,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>318</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>319</v>
+        <v>553</v>
       </c>
       <c r="C159">
         <v>71252</v>
@@ -5463,10 +5466,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>320</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>321</v>
+        <v>554</v>
       </c>
       <c r="C160">
         <v>53060</v>
@@ -5477,10 +5480,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>323</v>
+        <v>555</v>
       </c>
       <c r="C161">
         <v>50751</v>
@@ -5491,10 +5494,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>324</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>325</v>
+        <v>556</v>
       </c>
       <c r="C162">
         <v>45265</v>
@@ -5505,10 +5508,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>326</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>327</v>
+        <v>557</v>
       </c>
       <c r="C163">
         <v>49874</v>
@@ -5519,10 +5522,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>328</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>329</v>
+        <v>558</v>
       </c>
       <c r="C164">
         <v>69193</v>
@@ -5533,10 +5536,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>330</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>331</v>
+        <v>559</v>
       </c>
       <c r="C165">
         <v>48329</v>
@@ -5547,10 +5550,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>332</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>333</v>
+        <v>560</v>
       </c>
       <c r="C166">
         <v>67157</v>
@@ -5561,10 +5564,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>335</v>
+        <v>561</v>
       </c>
       <c r="C167">
         <v>63616</v>
@@ -5575,10 +5578,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>336</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>337</v>
+        <v>562</v>
       </c>
       <c r="C168">
         <v>62502</v>
@@ -5589,10 +5592,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>339</v>
+        <v>563</v>
       </c>
       <c r="C169">
         <v>63761</v>
@@ -5603,10 +5606,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>340</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>341</v>
+        <v>564</v>
       </c>
       <c r="C170">
         <v>58626</v>
@@ -5617,10 +5620,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>342</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>343</v>
+        <v>565</v>
       </c>
       <c r="C171">
         <v>55124</v>
@@ -5631,10 +5634,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>345</v>
+        <v>566</v>
       </c>
       <c r="C172">
         <v>52426</v>
@@ -5645,10 +5648,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>346</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>347</v>
+        <v>567</v>
       </c>
       <c r="C173">
         <v>48700</v>
@@ -5659,10 +5662,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>348</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>349</v>
+        <v>568</v>
       </c>
       <c r="C174">
         <v>65880</v>
@@ -5673,10 +5676,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>350</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>351</v>
+        <v>569</v>
       </c>
       <c r="C175">
         <v>49544</v>
@@ -5687,10 +5690,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>352</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>353</v>
+        <v>570</v>
       </c>
       <c r="C176">
         <v>61243</v>
@@ -5701,10 +5704,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>354</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>355</v>
+        <v>571</v>
       </c>
       <c r="C177">
         <v>60786</v>
@@ -5715,10 +5718,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>357</v>
+        <v>572</v>
       </c>
       <c r="C178">
         <v>45917</v>
@@ -5729,10 +5732,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>358</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>359</v>
+        <v>573</v>
       </c>
       <c r="C179">
         <v>49076</v>
@@ -5743,10 +5746,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>360</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>361</v>
+        <v>574</v>
       </c>
       <c r="C180">
         <v>44998</v>
@@ -5757,10 +5760,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>362</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>363</v>
+        <v>575</v>
       </c>
       <c r="C181">
         <v>48909</v>
@@ -5771,10 +5774,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>364</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>365</v>
+        <v>576</v>
       </c>
       <c r="C182">
         <v>80754</v>
@@ -5785,10 +5788,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>366</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="C183">
         <v>56441</v>
@@ -5799,10 +5802,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>368</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>369</v>
+        <v>578</v>
       </c>
       <c r="C184">
         <v>60923</v>
@@ -5813,10 +5816,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>370</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>371</v>
+        <v>579</v>
       </c>
       <c r="C185">
         <v>70215</v>
@@ -5827,10 +5830,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>372</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>373</v>
+        <v>580</v>
       </c>
       <c r="C186">
         <v>68283</v>
@@ -5841,10 +5844,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>374</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>375</v>
+        <v>581</v>
       </c>
       <c r="C187">
         <v>54370</v>
@@ -5855,10 +5858,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>377</v>
+        <v>582</v>
       </c>
       <c r="C188">
         <v>48615</v>
@@ -5869,10 +5872,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>378</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>379</v>
+        <v>583</v>
       </c>
       <c r="C189">
         <v>64087</v>
@@ -5883,10 +5886,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>381</v>
+        <v>584</v>
       </c>
       <c r="C190">
         <v>56623</v>
@@ -5897,10 +5900,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>382</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>383</v>
+        <v>585</v>
       </c>
       <c r="C191">
         <v>53440</v>
@@ -5911,10 +5914,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>384</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>385</v>
+        <v>586</v>
       </c>
       <c r="C192">
         <v>59608</v>
@@ -5925,10 +5928,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>386</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>387</v>
+        <v>587</v>
       </c>
       <c r="C193">
         <v>53493</v>
@@ -5939,10 +5942,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>388</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>389</v>
+        <v>588</v>
       </c>
       <c r="C194">
         <v>49908</v>
@@ -5953,10 +5956,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>390</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>391</v>
+        <v>589</v>
       </c>
       <c r="C195">
         <v>51547</v>
@@ -5967,10 +5970,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>392</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>393</v>
+        <v>590</v>
       </c>
       <c r="C196">
         <v>50179</v>
@@ -5981,10 +5984,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>394</v>
+        <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>395</v>
+        <v>591</v>
       </c>
       <c r="C197">
         <v>51833</v>
@@ -5995,10 +5998,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>396</v>
+        <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>397</v>
+        <v>592</v>
       </c>
       <c r="C198">
         <v>67376</v>
@@ -6009,10 +6012,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>398</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>399</v>
+        <v>593</v>
       </c>
       <c r="C199">
         <v>59117</v>
@@ -6023,10 +6026,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>400</v>
+        <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>401</v>
+        <v>594</v>
       </c>
       <c r="C200">
         <v>56084</v>
@@ -6037,10 +6040,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>402</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>403</v>
+        <v>595</v>
       </c>
       <c r="C201">
         <v>43038</v>
@@ -6051,10 +6054,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>405</v>
+        <v>596</v>
       </c>
       <c r="C202">
         <v>62107</v>
@@ -6065,10 +6068,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>406</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>407</v>
+        <v>597</v>
       </c>
       <c r="C203">
         <v>64233</v>
@@ -6079,10 +6082,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>408</v>
+        <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>409</v>
+        <v>598</v>
       </c>
       <c r="C204">
         <v>51332</v>
@@ -6093,10 +6096,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>410</v>
+        <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>411</v>
+        <v>599</v>
       </c>
       <c r="C205">
         <v>61204</v>
@@ -6107,10 +6110,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>412</v>
+        <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>413</v>
+        <v>600</v>
       </c>
       <c r="C206">
         <v>61191</v>
@@ -6121,10 +6124,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>414</v>
+        <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>415</v>
+        <v>601</v>
       </c>
       <c r="C207">
         <v>63813</v>
@@ -6135,10 +6138,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>416</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>417</v>
+        <v>602</v>
       </c>
       <c r="C208">
         <v>60492</v>
@@ -6149,10 +6152,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>418</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>419</v>
+        <v>603</v>
       </c>
       <c r="C209">
         <v>60429</v>
@@ -6163,10 +6166,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>420</v>
+        <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>421</v>
+        <v>604</v>
       </c>
       <c r="C210">
         <v>61539</v>
@@ -6177,10 +6180,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>422</v>
+        <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>423</v>
+        <v>605</v>
       </c>
       <c r="C211">
         <v>56849</v>
@@ -6191,10 +6194,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>424</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>425</v>
+        <v>606</v>
       </c>
       <c r="C212">
         <v>61467</v>
@@ -6205,10 +6208,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>426</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>427</v>
+        <v>607</v>
       </c>
       <c r="C213">
         <v>55970</v>
@@ -6219,10 +6222,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>428</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>429</v>
+        <v>608</v>
       </c>
       <c r="C214">
         <v>55497</v>
@@ -6233,10 +6236,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>430</v>
+        <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>431</v>
+        <v>609</v>
       </c>
       <c r="C215">
         <v>77774</v>
@@ -6247,10 +6250,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>432</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>433</v>
+        <v>610</v>
       </c>
       <c r="C216">
         <v>61172</v>
@@ -6261,10 +6264,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>434</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>435</v>
+        <v>611</v>
       </c>
       <c r="C217">
         <v>54598</v>
@@ -6275,10 +6278,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>436</v>
+        <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>437</v>
+        <v>612</v>
       </c>
       <c r="C218">
         <v>57736</v>
@@ -6289,10 +6292,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>438</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>439</v>
+        <v>613</v>
       </c>
       <c r="C219">
         <v>48435</v>
@@ -6303,10 +6306,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>440</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>441</v>
+        <v>614</v>
       </c>
       <c r="C220">
         <v>64827</v>
@@ -6317,10 +6320,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>442</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>443</v>
+        <v>615</v>
       </c>
       <c r="C221">
         <v>75545</v>
@@ -6331,10 +6334,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>444</v>
+        <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>445</v>
+        <v>616</v>
       </c>
       <c r="C222">
         <v>83626</v>
@@ -6345,10 +6348,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>446</v>
+        <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>447</v>
+        <v>617</v>
       </c>
       <c r="C223">
         <v>59010</v>
@@ -6359,10 +6362,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>448</v>
+        <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>449</v>
+        <v>618</v>
       </c>
       <c r="C224">
         <v>63126</v>
@@ -6373,10 +6376,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>450</v>
+        <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>451</v>
+        <v>619</v>
       </c>
       <c r="C225">
         <v>51783</v>
@@ -6387,10 +6390,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>452</v>
+        <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>453</v>
+        <v>620</v>
       </c>
       <c r="C226">
         <v>15746</v>
@@ -6401,10 +6404,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>454</v>
+        <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>455</v>
+        <v>621</v>
       </c>
       <c r="C227">
         <v>41800</v>
@@ -6415,10 +6418,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>456</v>
+        <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>457</v>
+        <v>622</v>
       </c>
       <c r="C228">
         <v>56450</v>
@@ -6429,10 +6432,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>458</v>
+        <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>459</v>
+        <v>623</v>
       </c>
       <c r="C229">
         <v>54859</v>
@@ -6443,10 +6446,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>460</v>
+        <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>461</v>
+        <v>624</v>
       </c>
       <c r="C230">
         <v>61167</v>
@@ -6457,10 +6460,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>462</v>
+        <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>463</v>
+        <v>625</v>
       </c>
       <c r="C231">
         <v>60141</v>
@@ -6471,10 +6474,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>464</v>
+        <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>465</v>
+        <v>626</v>
       </c>
       <c r="C232">
         <v>56019</v>
@@ -6485,10 +6488,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>466</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>467</v>
+        <v>627</v>
       </c>
       <c r="C233">
         <v>69872</v>
@@ -6499,10 +6502,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>468</v>
+        <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>469</v>
+        <v>628</v>
       </c>
       <c r="C234">
         <v>82650</v>
@@ -6513,10 +6516,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>470</v>
+        <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>471</v>
+        <v>629</v>
       </c>
       <c r="C235">
         <v>65845</v>
@@ -6527,10 +6530,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>472</v>
+        <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>473</v>
+        <v>630</v>
       </c>
       <c r="C236">
         <v>83698</v>
@@ -6541,10 +6544,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>474</v>
+        <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>475</v>
+        <v>631</v>
       </c>
       <c r="C237">
         <v>57347</v>
@@ -6555,10 +6558,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>476</v>
+        <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>477</v>
+        <v>632</v>
       </c>
       <c r="C238">
         <v>49561</v>
@@ -6569,10 +6572,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>478</v>
+        <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>479</v>
+        <v>633</v>
       </c>
       <c r="C239">
         <v>63037</v>
@@ -6583,10 +6586,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>480</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>481</v>
+        <v>634</v>
       </c>
       <c r="C240">
         <v>40136</v>
@@ -6597,10 +6600,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>482</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>483</v>
+        <v>635</v>
       </c>
       <c r="C241">
         <v>62839</v>
@@ -6611,10 +6614,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>484</v>
+        <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>485</v>
+        <v>636</v>
       </c>
       <c r="C242">
         <v>53834</v>
@@ -6625,10 +6628,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>486</v>
+        <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>487</v>
+        <v>637</v>
       </c>
       <c r="C243">
         <v>56395</v>
@@ -6639,10 +6642,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>488</v>
+        <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>489</v>
+        <v>638</v>
       </c>
       <c r="C244">
         <v>47326</v>
@@ -6653,10 +6656,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>490</v>
+        <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>491</v>
+        <v>639</v>
       </c>
       <c r="C245">
         <v>67175</v>
@@ -6667,10 +6670,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>492</v>
+        <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>493</v>
+        <v>640</v>
       </c>
       <c r="C246">
         <v>45065</v>
@@ -6681,10 +6684,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>494</v>
+        <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>495</v>
+        <v>641</v>
       </c>
       <c r="C247">
         <v>50366</v>
@@ -6695,10 +6698,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>496</v>
+        <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>497</v>
+        <v>642</v>
       </c>
       <c r="C248">
         <v>56977</v>
@@ -6709,10 +6712,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>498</v>
+        <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>499</v>
+        <v>643</v>
       </c>
       <c r="C249">
         <v>92769</v>
@@ -6723,10 +6726,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>500</v>
+        <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>501</v>
+        <v>644</v>
       </c>
       <c r="C250">
         <v>76025</v>
@@ -6737,10 +6740,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>502</v>
+        <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>503</v>
+        <v>645</v>
       </c>
       <c r="C251">
         <v>70262</v>
@@ -6751,10 +6754,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>504</v>
+        <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>505</v>
+        <v>646</v>
       </c>
       <c r="C252">
         <v>52355</v>
@@ -6765,10 +6768,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>506</v>
+        <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>507</v>
+        <v>647</v>
       </c>
       <c r="C253">
         <v>69751</v>
@@ -6779,10 +6782,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>508</v>
+        <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>509</v>
+        <v>648</v>
       </c>
       <c r="C254">
         <v>55710</v>
@@ -6793,10 +6796,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>510</v>
+        <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>511</v>
+        <v>649</v>
       </c>
       <c r="C255">
         <v>83160</v>
@@ -6807,10 +6810,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>512</v>
+        <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>513</v>
+        <v>650</v>
       </c>
       <c r="C256">
         <v>50153</v>
@@ -6821,10 +6824,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>514</v>
+        <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>515</v>
+        <v>651</v>
       </c>
       <c r="C257">
         <v>65526</v>
@@ -6835,10 +6838,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>516</v>
+        <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>517</v>
+        <v>652</v>
       </c>
       <c r="C258">
         <v>75633</v>
@@ -6849,10 +6852,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>518</v>
+        <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>519</v>
+        <v>653</v>
       </c>
       <c r="C259">
         <v>49576</v>
@@ -6863,10 +6866,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>520</v>
+        <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>521</v>
+        <v>654</v>
       </c>
       <c r="C260">
         <v>69980</v>
@@ -6877,10 +6880,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>522</v>
+        <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>523</v>
+        <v>655</v>
       </c>
       <c r="C261">
         <v>67205</v>
@@ -6891,10 +6894,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>524</v>
+        <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>525</v>
+        <v>656</v>
       </c>
       <c r="C262">
         <v>79251</v>
@@ -6905,10 +6908,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>526</v>
+        <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>527</v>
+        <v>657</v>
       </c>
       <c r="C263">
         <v>60605</v>
@@ -6919,10 +6922,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>528</v>
+        <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>529</v>
+        <v>658</v>
       </c>
       <c r="C264">
         <v>78512</v>
@@ -6933,10 +6936,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>530</v>
+        <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>531</v>
+        <v>659</v>
       </c>
       <c r="C265">
         <v>70373</v>
@@ -6947,10 +6950,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>532</v>
+        <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>533</v>
+        <v>660</v>
       </c>
       <c r="C266">
         <v>61876</v>
@@ -6961,10 +6964,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>534</v>
+        <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>535</v>
+        <v>661</v>
       </c>
       <c r="C267">
         <v>58347</v>
@@ -6975,10 +6978,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>536</v>
+        <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>537</v>
+        <v>662</v>
       </c>
       <c r="C268">
         <v>52201</v>
@@ -6989,10 +6992,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>538</v>
+        <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>539</v>
+        <v>663</v>
       </c>
       <c r="C269">
         <v>92236</v>
@@ -7003,10 +7006,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>540</v>
+        <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>541</v>
+        <v>664</v>
       </c>
       <c r="C270">
         <v>57305</v>
@@ -7017,10 +7020,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>542</v>
+        <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>543</v>
+        <v>665</v>
       </c>
       <c r="C271">
         <v>59450</v>
@@ -7031,10 +7034,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>544</v>
+        <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>545</v>
+        <v>666</v>
       </c>
       <c r="C272">
         <v>48680</v>
@@ -7045,10 +7048,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>546</v>
+        <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>547</v>
+        <v>667</v>
       </c>
       <c r="C273">
         <v>56507</v>
@@ -7059,10 +7062,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>548</v>
+        <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>549</v>
+        <v>668</v>
       </c>
       <c r="C274">
         <v>60372</v>
@@ -7073,10 +7076,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>550</v>
+        <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>551</v>
+        <v>669</v>
       </c>
       <c r="C275">
         <v>74533</v>
@@ -7087,10 +7090,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>552</v>
+        <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>553</v>
+        <v>670</v>
       </c>
       <c r="C276">
         <v>67896</v>
@@ -7101,10 +7104,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>554</v>
+        <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>555</v>
+        <v>671</v>
       </c>
       <c r="C277">
         <v>41541</v>
@@ -7115,10 +7118,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>556</v>
+        <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>557</v>
+        <v>672</v>
       </c>
       <c r="C278">
         <v>62638</v>
@@ -7129,10 +7132,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>558</v>
+        <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>559</v>
+        <v>673</v>
       </c>
       <c r="C279">
         <v>58895</v>
@@ -7143,10 +7146,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>560</v>
+        <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>561</v>
+        <v>674</v>
       </c>
       <c r="C280">
         <v>51612</v>
@@ -7157,10 +7160,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>562</v>
+        <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>563</v>
+        <v>675</v>
       </c>
       <c r="C281">
         <v>16061</v>
@@ -7171,10 +7174,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>568</v>
+        <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>569</v>
+        <v>676</v>
       </c>
       <c r="C282">
         <v>62608</v>
@@ -7185,10 +7188,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>564</v>
+        <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>565</v>
+        <v>677</v>
       </c>
       <c r="C283">
         <v>71913</v>
@@ -7199,10 +7202,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>566</v>
+        <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>567</v>
+        <v>678</v>
       </c>
       <c r="C284">
         <v>78439</v>
@@ -7213,10 +7216,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>570</v>
+        <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>571</v>
+        <v>679</v>
       </c>
       <c r="C285">
         <v>85152</v>
@@ -7227,10 +7230,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>572</v>
+        <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>573</v>
+        <v>680</v>
       </c>
       <c r="C286">
         <v>53816</v>
@@ -7241,10 +7244,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>574</v>
+        <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="C287">
         <v>70967</v>
@@ -7255,10 +7258,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>576</v>
+        <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>577</v>
+        <v>682</v>
       </c>
       <c r="C288">
         <v>79152</v>
@@ -7269,10 +7272,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>578</v>
+        <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>579</v>
+        <v>683</v>
       </c>
       <c r="C289">
         <v>51276</v>
@@ -7283,10 +7286,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>580</v>
+        <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>581</v>
+        <v>684</v>
       </c>
       <c r="C290">
         <v>54652</v>
@@ -7297,10 +7300,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>582</v>
+        <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>583</v>
+        <v>685</v>
       </c>
       <c r="C291">
         <v>60779</v>
@@ -7311,10 +7314,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>584</v>
+        <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>585</v>
+        <v>686</v>
       </c>
       <c r="C292">
         <v>80096</v>
@@ -7325,10 +7328,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>586</v>
+        <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>587</v>
+        <v>687</v>
       </c>
       <c r="C293">
         <v>58361</v>
@@ -7339,10 +7342,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>588</v>
+        <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>589</v>
+        <v>688</v>
       </c>
       <c r="C294">
         <v>67708</v>
@@ -7353,10 +7356,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>590</v>
+        <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>591</v>
+        <v>689</v>
       </c>
       <c r="C295">
         <v>63091</v>
@@ -7367,10 +7370,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>592</v>
+        <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>593</v>
+        <v>690</v>
       </c>
       <c r="C296">
         <v>72132</v>
@@ -7381,10 +7384,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>594</v>
+        <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>595</v>
+        <v>691</v>
       </c>
       <c r="C297">
         <v>68324</v>
@@ -7395,10 +7398,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>596</v>
+        <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>597</v>
+        <v>692</v>
       </c>
       <c r="C298">
         <v>70954</v>
@@ -7409,10 +7412,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>598</v>
+        <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>599</v>
+        <v>693</v>
       </c>
       <c r="C299">
         <v>60471</v>
@@ -7423,10 +7426,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>600</v>
+        <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>601</v>
+        <v>694</v>
       </c>
       <c r="C300">
         <v>75926</v>
@@ -7437,10 +7440,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>602</v>
+        <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>603</v>
+        <v>695</v>
       </c>
       <c r="C301">
         <v>62104</v>
@@ -7451,10 +7454,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>604</v>
+        <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="C302">
         <v>61078</v>
@@ -7465,10 +7468,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>606</v>
+        <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>607</v>
+        <v>697</v>
       </c>
       <c r="C303">
         <v>46466</v>
@@ -7479,10 +7482,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>608</v>
+        <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>609</v>
+        <v>698</v>
       </c>
       <c r="C304">
         <v>50880</v>
@@ -7493,10 +7496,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>610</v>
+        <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>611</v>
+        <v>699</v>
       </c>
       <c r="C305">
         <v>76706</v>
@@ -7507,10 +7510,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>612</v>
+        <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>613</v>
+        <v>700</v>
       </c>
       <c r="C306">
         <v>48303</v>
@@ -7521,10 +7524,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>622</v>
+        <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>623</v>
+        <v>701</v>
       </c>
       <c r="C307">
         <v>65689</v>
@@ -7535,10 +7538,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>624</v>
+        <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>625</v>
+        <v>702</v>
       </c>
       <c r="C308">
         <v>77514</v>
@@ -7549,10 +7552,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>626</v>
+        <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="C309">
         <v>61283</v>
@@ -7563,10 +7566,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>628</v>
+        <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="C310">
         <v>80196</v>
@@ -7577,10 +7580,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>630</v>
+        <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>631</v>
+        <v>705</v>
       </c>
       <c r="C311">
         <v>55097</v>
@@ -7591,10 +7594,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>632</v>
+        <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="C312">
         <v>62355</v>
@@ -7605,10 +7608,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>634</v>
+        <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
       <c r="C313">
         <v>83985</v>
@@ -7619,10 +7622,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>636</v>
+        <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="C314">
         <v>114696</v>
@@ -7633,10 +7636,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>638</v>
+        <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>639</v>
+        <v>709</v>
       </c>
       <c r="C315">
         <v>16491</v>
@@ -7647,10 +7650,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>640</v>
+        <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>641</v>
+        <v>710</v>
       </c>
       <c r="C316">
         <v>130865</v>
@@ -7661,10 +7664,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>642</v>
+        <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>643</v>
+        <v>711</v>
       </c>
       <c r="C317">
         <v>23137</v>
@@ -7675,10 +7678,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>644</v>
+        <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>645</v>
+        <v>712</v>
       </c>
       <c r="C318">
         <v>77265</v>
@@ -7689,10 +7692,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>646</v>
+        <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>647</v>
+        <v>713</v>
       </c>
       <c r="C319">
         <v>89269</v>
@@ -7703,10 +7706,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>648</v>
+        <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>649</v>
+        <v>714</v>
       </c>
       <c r="C320">
         <v>61298</v>
@@ -7717,10 +7720,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>650</v>
+        <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>651</v>
+        <v>715</v>
       </c>
       <c r="C321">
         <v>75653</v>
@@ -7731,10 +7734,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>652</v>
+        <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>653</v>
+        <v>716</v>
       </c>
       <c r="C322">
         <v>87828</v>
@@ -7745,10 +7748,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>654</v>
+        <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>655</v>
+        <v>717</v>
       </c>
       <c r="C323">
         <v>60371</v>
@@ -7759,10 +7762,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>656</v>
+        <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>657</v>
+        <v>718</v>
       </c>
       <c r="C324">
         <v>54304</v>
@@ -7773,10 +7776,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>658</v>
+        <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="C325">
         <v>94027</v>
@@ -7787,10 +7790,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>660</v>
+        <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>661</v>
+        <v>720</v>
       </c>
       <c r="C326">
         <v>59782</v>
@@ -7801,10 +7804,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>662</v>
+        <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>663</v>
+        <v>721</v>
       </c>
       <c r="C327">
         <v>48698</v>
@@ -7815,10 +7818,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>664</v>
+        <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>665</v>
+        <v>722</v>
       </c>
       <c r="C328">
         <v>60706</v>
@@ -7829,10 +7832,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>666</v>
+        <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>667</v>
+        <v>723</v>
       </c>
       <c r="C329">
         <v>57476</v>
@@ -7843,10 +7846,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>668</v>
+        <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>669</v>
+        <v>724</v>
       </c>
       <c r="C330">
         <v>47447</v>
@@ -7857,10 +7860,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>670</v>
+        <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>671</v>
+        <v>725</v>
       </c>
       <c r="C331">
         <v>48484</v>
@@ -7871,10 +7874,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>672</v>
+        <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>673</v>
+        <v>726</v>
       </c>
       <c r="C332">
         <v>60132</v>
@@ -7885,10 +7888,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>674</v>
+        <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>675</v>
+        <v>727</v>
       </c>
       <c r="C333">
         <v>65566</v>
@@ -7899,10 +7902,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>676</v>
+        <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>677</v>
+        <v>728</v>
       </c>
       <c r="C334">
         <v>53471</v>
@@ -7913,10 +7916,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>678</v>
+        <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>679</v>
+        <v>729</v>
       </c>
       <c r="C335">
         <v>55339</v>
@@ -7927,10 +7930,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>680</v>
+        <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>681</v>
+        <v>730</v>
       </c>
       <c r="C336">
         <v>59646</v>
@@ -7941,10 +7944,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>682</v>
+        <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
       <c r="C337">
         <v>62205</v>
@@ -7955,10 +7958,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>684</v>
+        <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>685</v>
+        <v>732</v>
       </c>
       <c r="C338">
         <v>62346</v>
@@ -7969,10 +7972,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>686</v>
+        <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>687</v>
+        <v>733</v>
       </c>
       <c r="C339">
         <v>47034</v>
@@ -7983,10 +7986,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>688</v>
+        <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>689</v>
+        <v>734</v>
       </c>
       <c r="C340">
         <v>50128</v>
@@ -7997,10 +8000,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>614</v>
+        <v>305</v>
       </c>
       <c r="B341" t="s">
-        <v>615</v>
+        <v>735</v>
       </c>
       <c r="C341">
         <v>66076</v>
@@ -8011,10 +8014,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>616</v>
+        <v>306</v>
       </c>
       <c r="B342" t="s">
-        <v>617</v>
+        <v>736</v>
       </c>
       <c r="C342">
         <v>63595</v>
@@ -8025,10 +8028,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>618</v>
+        <v>307</v>
       </c>
       <c r="B343" t="s">
-        <v>619</v>
+        <v>737</v>
       </c>
       <c r="C343">
         <v>50425</v>
@@ -8039,10 +8042,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>620</v>
+        <v>308</v>
       </c>
       <c r="B344" t="s">
-        <v>621</v>
+        <v>738</v>
       </c>
       <c r="C344">
         <v>66417</v>
@@ -8053,10 +8056,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>690</v>
+        <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>691</v>
+        <v>739</v>
       </c>
       <c r="C345">
         <v>60706</v>
@@ -8067,10 +8070,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>692</v>
+        <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>693</v>
+        <v>740</v>
       </c>
       <c r="C346">
         <v>57844</v>
@@ -8081,10 +8084,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>694</v>
+        <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>695</v>
+        <v>741</v>
       </c>
       <c r="C347">
         <v>68997</v>
@@ -8095,10 +8098,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>696</v>
+        <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>697</v>
+        <v>742</v>
       </c>
       <c r="C348">
         <v>49263</v>
@@ -8109,10 +8112,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>698</v>
+        <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>699</v>
+        <v>743</v>
       </c>
       <c r="C349">
         <v>61213</v>
@@ -8123,10 +8126,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>700</v>
+        <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>701</v>
+        <v>744</v>
       </c>
       <c r="C350">
         <v>52729</v>
@@ -8137,10 +8140,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>702</v>
+        <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
       <c r="C351">
         <v>57906</v>
@@ -8151,10 +8154,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>704</v>
+        <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>705</v>
+        <v>746</v>
       </c>
       <c r="C352">
         <v>50129</v>
@@ -8165,10 +8168,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>706</v>
+        <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>707</v>
+        <v>747</v>
       </c>
       <c r="C353">
         <v>51544</v>
@@ -8179,10 +8182,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>708</v>
+        <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="C354">
         <v>60287</v>
@@ -8193,10 +8196,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>710</v>
+        <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>711</v>
+        <v>749</v>
       </c>
       <c r="C355">
         <v>53563</v>
@@ -8207,10 +8210,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>712</v>
+        <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="C356">
         <v>59567</v>
@@ -8221,10 +8224,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>714</v>
+        <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="C357">
         <v>79492</v>
@@ -8235,10 +8238,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>716</v>
+        <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>717</v>
+        <v>752</v>
       </c>
       <c r="C358">
         <v>56169</v>
@@ -8249,10 +8252,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>718</v>
+        <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>719</v>
+        <v>753</v>
       </c>
       <c r="C359">
         <v>57859</v>
@@ -8263,10 +8266,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>720</v>
+        <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="C360">
         <v>49721</v>
@@ -8277,10 +8280,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>722</v>
+        <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="C361">
         <v>56667</v>
@@ -8291,10 +8294,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>724</v>
+        <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="C362">
         <v>59584</v>
@@ -8305,10 +8308,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>726</v>
+        <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="C363">
         <v>87470</v>
@@ -8319,10 +8322,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>728</v>
+        <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>729</v>
+        <v>758</v>
       </c>
       <c r="C364">
         <v>57778</v>
@@ -8333,10 +8336,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>730</v>
+        <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>731</v>
+        <v>759</v>
       </c>
       <c r="C365">
         <v>43787</v>
@@ -8347,10 +8350,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>732</v>
+        <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
       <c r="C366">
         <v>86652</v>
@@ -8361,10 +8364,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>734</v>
+        <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>735</v>
+        <v>761</v>
       </c>
       <c r="C367">
         <v>56627</v>
@@ -8375,10 +8378,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>736</v>
+        <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>737</v>
+        <v>762</v>
       </c>
       <c r="C368">
         <v>54587</v>
@@ -8389,10 +8392,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>738</v>
+        <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="C369">
         <v>69329</v>
@@ -8403,10 +8406,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>740</v>
+        <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>741</v>
+        <v>764</v>
       </c>
       <c r="C370">
         <v>57692</v>
@@ -8417,10 +8420,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>742</v>
+        <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="C371">
         <v>50368</v>
@@ -8431,10 +8434,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>744</v>
+        <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="C372">
         <v>61285</v>
@@ -8445,10 +8448,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>746</v>
+        <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="C373">
         <v>61936</v>
@@ -8459,10 +8462,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>748</v>
+        <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="C374">
         <v>105659</v>
@@ -8473,10 +8476,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>750</v>
+        <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="C375">
         <v>63131</v>
@@ -8487,10 +8490,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>752</v>
+        <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="C376">
         <v>53917</v>
@@ -8501,10 +8504,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>754</v>
+        <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="C377">
         <v>65094</v>
@@ -8515,10 +8518,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>756</v>
+        <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="C378">
         <v>49510</v>
@@ -8529,10 +8532,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>758</v>
+        <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="C379">
         <v>60532</v>
@@ -8543,10 +8546,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>760</v>
+        <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="C380">
         <v>50440</v>
@@ -8557,10 +8560,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>764</v>
+        <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="C381">
         <v>52233</v>
@@ -8571,10 +8574,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>762</v>
+        <v>379</v>
       </c>
       <c r="B382" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="C382">
         <v>59779</v>
@@ -8585,10 +8588,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>766</v>
+        <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="C383">
         <v>53881</v>
@@ -8599,10 +8602,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>768</v>
+        <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C384">
         <v>57667</v>
@@ -8613,10 +8616,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>770</v>
+        <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="C385">
         <v>76583</v>
@@ -8627,10 +8630,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>772</v>
+        <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="C386">
         <v>52322</v>
@@ -8641,10 +8644,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>774</v>
+        <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C387">
         <v>76348</v>
@@ -8655,10 +8658,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>776</v>
+        <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="C388">
         <v>56233</v>
@@ -8669,10 +8672,10 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>778</v>
+        <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C389">
         <v>15695</v>
@@ -8683,10 +8686,10 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>780</v>
+        <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C390">
         <v>69172</v>
@@ -8697,10 +8700,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>782</v>
+        <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C391">
         <v>48558</v>
@@ -8711,10 +8714,10 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>784</v>
+        <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C392">
         <v>61307</v>
@@ -8725,7 +8728,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>786</v>
+        <v>391</v>
       </c>
       <c r="B393" t="s">
         <v>787</v>
@@ -8738,7 +8741,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D519">
+  <autoFilter ref="A1:D519" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D519">
       <sortCondition ref="B1:B519"/>
     </sortState>
